--- a/raw_data/20200818_saline/20200818_Sensor0_Test_91.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_91.xlsx
@@ -1,1022 +1,1438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AAAFFF-E7DD-47D9-AF8B-F706FF71792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>81002.922320</v>
+        <v>81002.922319999998</v>
       </c>
       <c r="B2" s="1">
         <v>22.500812</v>
       </c>
       <c r="C2" s="1">
-        <v>908.407000</v>
+        <v>908.40700000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.399000</v>
+        <v>-195.399</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>81013.352203</v>
+        <v>81013.352203000002</v>
       </c>
       <c r="G2" s="1">
-        <v>22.503709</v>
+        <v>22.503709000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>925.952000</v>
+        <v>925.952</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.305000</v>
+        <v>-166.30500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>81024.115909</v>
       </c>
       <c r="L2" s="1">
-        <v>22.506699</v>
+        <v>22.506699000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>948.653000</v>
+        <v>948.65300000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.914000</v>
+        <v>-119.914</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>81034.638534</v>
+        <v>81034.638533999998</v>
       </c>
       <c r="Q2" s="1">
         <v>22.509622</v>
       </c>
       <c r="R2" s="1">
-        <v>955.462000</v>
+        <v>955.46199999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.468000</v>
+        <v>-104.468</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>81045.000424</v>
+        <v>81045.000423999998</v>
       </c>
       <c r="V2" s="1">
-        <v>22.512500</v>
+        <v>22.512499999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>962.279000</v>
+        <v>962.279</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.614700</v>
+        <v>-90.614699999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>81055.202176</v>
+        <v>81055.202176000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.515334</v>
+        <v>22.515333999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>969.724000</v>
+        <v>969.72400000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.903600</v>
+        <v>-80.903599999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>81065.392941</v>
+        <v>81065.392940999998</v>
       </c>
       <c r="AF2" s="1">
         <v>22.518165</v>
       </c>
       <c r="AG2" s="1">
-        <v>974.827000</v>
+        <v>974.827</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.342800</v>
+        <v>-80.342799999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>81075.500448</v>
+        <v>81075.500448000006</v>
       </c>
       <c r="AK2" s="1">
         <v>22.520972</v>
       </c>
       <c r="AL2" s="1">
-        <v>982.908000</v>
+        <v>982.90800000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.774500</v>
+        <v>-87.774500000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>81085.768594</v>
+        <v>81085.768593999994</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.523825</v>
+        <v>22.523824999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>992.144000</v>
+        <v>992.14400000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.465000</v>
+        <v>-102.465</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>81096.712820</v>
+        <v>81096.712820000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.526865</v>
+        <v>22.526865000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.789000</v>
+        <v>-123.789</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>81107.519190</v>
+        <v>81107.519190000006</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.529866</v>
+        <v>22.529865999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.334000</v>
+        <v>-142.334</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>81118.476807</v>
+        <v>81118.476806999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.532910</v>
+        <v>22.532910000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.378000</v>
+        <v>-226.37799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>81129.147209</v>
+        <v>81129.147209000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>22.535874</v>
       </c>
       <c r="BK2" s="1">
-        <v>1138.040000</v>
+        <v>1138.04</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.781000</v>
+        <v>-360.78100000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>81140.217952</v>
+        <v>81140.217952000006</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.538949</v>
+        <v>22.538948999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.740000</v>
+        <v>-567.74</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>81150.973696</v>
+        <v>81150.973696000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.541937</v>
+        <v>22.541937000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1415.330000</v>
+        <v>1415.33</v>
       </c>
       <c r="BV2" s="1">
-        <v>-788.646000</v>
+        <v>-788.64599999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>81161.988814</v>
+        <v>81161.988813999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.544997</v>
+        <v>22.544996999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.650000</v>
+        <v>1575.65</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1018.280000</v>
+        <v>-1018.28</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>81173.183519</v>
+        <v>81173.183518999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.548107</v>
+        <v>22.548107000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1977.220000</v>
+        <v>1977.22</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1556.690000</v>
+        <v>-1556.69</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>81003.300273</v>
+        <v>81003.300273000001</v>
       </c>
       <c r="B3" s="1">
-        <v>22.500917</v>
+        <v>22.500917000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>908.501000</v>
+        <v>908.50099999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.420000</v>
+        <v>-195.42</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>81014.007905</v>
+        <v>81014.007905000006</v>
       </c>
       <c r="G3" s="1">
-        <v>22.503891</v>
+        <v>22.503890999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>925.639000</v>
+        <v>925.63900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.637000</v>
+        <v>-166.637</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>81024.523091</v>
+        <v>81024.523090999995</v>
       </c>
       <c r="L3" s="1">
         <v>22.506812</v>
       </c>
       <c r="M3" s="1">
-        <v>948.641000</v>
+        <v>948.64099999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.828000</v>
+        <v>-119.828</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>81035.058613</v>
+        <v>81035.058613000001</v>
       </c>
       <c r="Q3" s="1">
         <v>22.509739</v>
       </c>
       <c r="R3" s="1">
-        <v>955.497000</v>
+        <v>955.49699999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.453000</v>
+        <v>-104.453</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>81045.349144</v>
+        <v>81045.349144000007</v>
       </c>
       <c r="V3" s="1">
         <v>22.512597</v>
       </c>
       <c r="W3" s="1">
-        <v>962.154000</v>
+        <v>962.154</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.718900</v>
+        <v>-90.718900000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>81055.528508</v>
+        <v>81055.528508000003</v>
       </c>
       <c r="AA3" s="1">
         <v>22.515425</v>
       </c>
       <c r="AB3" s="1">
-        <v>969.686000</v>
+        <v>969.68600000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.895100</v>
+        <v>-80.895099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>81065.772414</v>
+        <v>81065.772414000006</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.518270</v>
+        <v>22.518270000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>974.819000</v>
+        <v>974.81899999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.333900</v>
+        <v>-80.3339</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>81075.924992</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.521090</v>
+        <v>22.521090000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>982.907000</v>
+        <v>982.90700000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.819000</v>
+        <v>-87.819000000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>81086.195187</v>
+        <v>81086.195187000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.523943</v>
+        <v>22.523942999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>992.136000</v>
+        <v>992.13599999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.465000</v>
+        <v>-102.465</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>81096.821462</v>
+        <v>81096.821462000007</v>
       </c>
       <c r="AU3" s="1">
         <v>22.526895</v>
       </c>
       <c r="AV3" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.766000</v>
+        <v>-123.76600000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>81107.878263</v>
+        <v>81107.878263000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.529966</v>
+        <v>22.529966000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1013.150000</v>
+        <v>1013.15</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.351000</v>
+        <v>-142.351</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>81118.839847</v>
+        <v>81118.839846999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.533011</v>
+        <v>22.533010999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.370000</v>
+        <v>-226.37</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>81129.536106</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.535982</v>
+        <v>22.535982000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1138.010000</v>
+        <v>1138.01</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.784000</v>
+        <v>-360.78399999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>81140.660879</v>
+        <v>81140.660879000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.539072</v>
+        <v>22.539072000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1269.040000</v>
+        <v>1269.04</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.764000</v>
+        <v>-567.76400000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>81151.413116</v>
+        <v>81151.413115999996</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.542059</v>
+        <v>22.542058999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1415.170000</v>
+        <v>1415.17</v>
       </c>
       <c r="BV3" s="1">
-        <v>-788.625000</v>
+        <v>-788.625</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>81162.461997</v>
+        <v>81162.461997000006</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.545128</v>
+        <v>22.545127999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1018.230000</v>
+        <v>-1018.23</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>81173.720190</v>
+        <v>81173.720189999993</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.548256</v>
+        <v>22.548255999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1976.620000</v>
+        <v>1976.62</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1554.620000</v>
+        <v>-1554.62</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>81003.993183</v>
+        <v>81003.993182999999</v>
       </c>
       <c r="B4" s="1">
         <v>22.501109</v>
       </c>
       <c r="C4" s="1">
-        <v>908.366000</v>
+        <v>908.36599999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.312000</v>
+        <v>-195.31200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>81014.381889</v>
+        <v>81014.381888999997</v>
       </c>
       <c r="G4" s="1">
         <v>22.503995</v>
       </c>
       <c r="H4" s="1">
-        <v>925.415000</v>
+        <v>925.41499999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.977000</v>
+        <v>-165.977</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>81024.871283</v>
@@ -1025,2007 +1441,2007 @@
         <v>22.506909</v>
       </c>
       <c r="M4" s="1">
-        <v>948.561000</v>
+        <v>948.56100000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.822000</v>
+        <v>-119.822</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>81035.398373</v>
+        <v>81035.398373000004</v>
       </c>
       <c r="Q4" s="1">
         <v>22.509833</v>
       </c>
       <c r="R4" s="1">
-        <v>955.532000</v>
+        <v>955.53200000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.469000</v>
+        <v>-104.46899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>81045.691880</v>
+        <v>81045.691879999998</v>
       </c>
       <c r="V4" s="1">
-        <v>22.512692</v>
+        <v>22.512692000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>962.261000</v>
+        <v>962.26099999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.706600</v>
+        <v>-90.706599999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>81055.983338</v>
+        <v>81055.983338000005</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.515551</v>
+        <v>22.515550999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>969.705000</v>
+        <v>969.70500000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.909800</v>
+        <v>-80.909800000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>81066.196497</v>
+        <v>81066.196496999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.518388</v>
+        <v>22.518388000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>974.855000</v>
+        <v>974.85500000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.315800</v>
+        <v>-80.315799999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>81076.261776</v>
+        <v>81076.261775999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.521184</v>
+        <v>22.521184000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>982.884000</v>
+        <v>982.88400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.788200</v>
+        <v>-87.788200000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>81086.528963</v>
+        <v>81086.528963000004</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.524036</v>
+        <v>22.524035999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>992.144000</v>
+        <v>992.14400000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.477000</v>
+        <v>-102.477</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>81097.179555</v>
+        <v>81097.179554999995</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.526994</v>
+        <v>22.526993999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.776000</v>
+        <v>-123.776</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>81108.240341</v>
+        <v>81108.240340999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.530067</v>
+        <v>22.530066999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.322000</v>
+        <v>-142.322</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>81119.192006</v>
+        <v>81119.192005999997</v>
       </c>
       <c r="BE4" s="1">
         <v>22.533109</v>
       </c>
       <c r="BF4" s="1">
-        <v>1058.530000</v>
+        <v>1058.53</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.385000</v>
+        <v>-226.38499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>81130.289497</v>
+        <v>81130.289497000005</v>
       </c>
       <c r="BJ4" s="1">
         <v>22.536192</v>
       </c>
       <c r="BK4" s="1">
-        <v>1138.020000</v>
+        <v>1138.02</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.794000</v>
+        <v>-360.79399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>81141.457417</v>
+        <v>81141.457416999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.539294</v>
+        <v>22.539294000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1269.030000</v>
+        <v>1269.03</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.816000</v>
+        <v>-567.81600000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>81151.851580</v>
+        <v>81151.851580000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.542181</v>
+        <v>22.542180999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1415.170000</v>
+        <v>1415.17</v>
       </c>
       <c r="BV4" s="1">
-        <v>-788.592000</v>
+        <v>-788.59199999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>81162.894013</v>
+        <v>81162.894012999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.545248</v>
+        <v>22.545248000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.620000</v>
+        <v>1575.62</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1018.200000</v>
+        <v>-1018.2</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>81174.251941</v>
+        <v>81174.251940999995</v>
       </c>
       <c r="CD4" s="1">
         <v>22.548403</v>
       </c>
       <c r="CE4" s="1">
-        <v>1977.850000</v>
+        <v>1977.85</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1556.760000</v>
+        <v>-1556.76</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>81004.358277</v>
+        <v>81004.358277000007</v>
       </c>
       <c r="B5" s="1">
-        <v>22.501211</v>
+        <v>22.501211000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>908.438000</v>
+        <v>908.43799999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.454000</v>
+        <v>-195.45400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>81014.727617</v>
+        <v>81014.727616999997</v>
       </c>
       <c r="G5" s="1">
-        <v>22.504091</v>
+        <v>22.504090999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>924.886000</v>
+        <v>924.88599999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.057000</v>
+        <v>-166.05699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>81025.216536</v>
+        <v>81025.216536000007</v>
       </c>
       <c r="L5" s="1">
-        <v>22.507005</v>
+        <v>22.507004999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>948.627000</v>
+        <v>948.62699999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.685000</v>
+        <v>-119.685</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>81035.755494</v>
+        <v>81035.755493999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.509932</v>
+        <v>22.509931999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>955.482000</v>
+        <v>955.48199999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.486000</v>
+        <v>-104.486</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>81046.123367</v>
+        <v>81046.123366999993</v>
       </c>
       <c r="V5" s="1">
         <v>22.512812</v>
       </c>
       <c r="W5" s="1">
-        <v>962.256000</v>
+        <v>962.25599999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.660700</v>
+        <v>-90.660700000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>81056.231833</v>
+        <v>81056.231832999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.515620</v>
+        <v>22.515619999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>969.709000</v>
+        <v>969.70899999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.911100</v>
+        <v>-80.911100000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>81066.461324</v>
+        <v>81066.461324000004</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.518461</v>
+        <v>22.518460999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>974.876000</v>
+        <v>974.87599999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.288000</v>
+        <v>-80.287999999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>81076.611951</v>
+        <v>81076.611950999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.521281</v>
+        <v>22.521280999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>982.907000</v>
+        <v>982.90700000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.804100</v>
+        <v>-87.804100000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>81086.892561</v>
+        <v>81086.892561000001</v>
       </c>
       <c r="AP5" s="1">
         <v>22.524137</v>
       </c>
       <c r="AQ5" s="1">
-        <v>992.144000</v>
+        <v>992.14400000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.467000</v>
+        <v>-102.467</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>81097.544611</v>
+        <v>81097.544611000005</v>
       </c>
       <c r="AU5" s="1">
         <v>22.527096</v>
       </c>
       <c r="AV5" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.750000</v>
+        <v>-123.75</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>81108.958580</v>
+        <v>81108.958580000006</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.530266</v>
+        <v>22.530266000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.340000</v>
+        <v>-142.34</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>81119.924597</v>
+        <v>81119.924597000005</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.533312</v>
+        <v>22.533311999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.380000</v>
+        <v>-226.38</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>81130.689768</v>
+        <v>81130.689767999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>22.536303</v>
       </c>
       <c r="BK5" s="1">
-        <v>1138.040000</v>
+        <v>1138.04</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.833000</v>
+        <v>-360.83300000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>81141.875081</v>
+        <v>81141.875081000006</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.539410</v>
+        <v>22.53941</v>
       </c>
       <c r="BP5" s="1">
-        <v>1269.070000</v>
+        <v>1269.07</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-567.801000</v>
+        <v>-567.80100000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>81152.277644</v>
+        <v>81152.277644000002</v>
       </c>
       <c r="BT5" s="1">
         <v>22.542299</v>
       </c>
       <c r="BU5" s="1">
-        <v>1415.170000</v>
+        <v>1415.17</v>
       </c>
       <c r="BV5" s="1">
-        <v>-788.467000</v>
+        <v>-788.46699999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>81163.621149</v>
+        <v>81163.621148999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.545450</v>
+        <v>22.545449999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.660000</v>
+        <v>1575.66</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1018.220000</v>
+        <v>-1018.22</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>81175.112957</v>
+        <v>81175.112957000005</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.548642</v>
+        <v>22.548642000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1976.670000</v>
+        <v>1976.67</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1555.440000</v>
+        <v>-1555.44</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>81004.696510</v>
+        <v>81004.696509999994</v>
       </c>
       <c r="B6" s="1">
-        <v>22.501305</v>
+        <v>22.501304999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>908.602000</v>
+        <v>908.60199999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.299000</v>
+        <v>-195.29900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>81015.070833</v>
+        <v>81015.070833000005</v>
       </c>
       <c r="G6" s="1">
-        <v>22.504186</v>
+        <v>22.504186000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>925.559000</v>
+        <v>925.55899999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.274000</v>
+        <v>-166.274</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>81025.645538</v>
+        <v>81025.645537999997</v>
       </c>
       <c r="L6" s="1">
-        <v>22.507124</v>
+        <v>22.507124000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>948.511000</v>
+        <v>948.51099999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.715000</v>
+        <v>-119.715</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>81036.185524</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.510052</v>
+        <v>22.510052000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>955.459000</v>
+        <v>955.45899999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.512000</v>
+        <v>-104.512</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>81046.390583</v>
       </c>
       <c r="V6" s="1">
-        <v>22.512886</v>
+        <v>22.512886000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>962.132000</v>
+        <v>962.13199999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.656300</v>
+        <v>-90.656300000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>81056.582010</v>
+        <v>81056.582009999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.515717</v>
+        <v>22.515716999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>969.706000</v>
+        <v>969.70600000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.924400</v>
+        <v>-80.924400000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>81066.804555</v>
+        <v>81066.804554999995</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.518557</v>
+        <v>22.518557000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>974.833000</v>
+        <v>974.83299999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.290800</v>
+        <v>-80.290800000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>81076.961166</v>
+        <v>81076.961165999994</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.521378</v>
+        <v>22.521377999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>982.922000</v>
+        <v>982.92200000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.804100</v>
+        <v>-87.804100000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>81087.249652</v>
+        <v>81087.249651999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.524236</v>
+        <v>22.524235999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>992.151000</v>
+        <v>992.15099999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.475000</v>
+        <v>-102.47499999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>81098.271251</v>
+        <v>81098.271250999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.527298</v>
+        <v>22.527297999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1003.560000</v>
+        <v>1003.56</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.764000</v>
+        <v>-123.764</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>81109.316659</v>
+        <v>81109.316659000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.530366</v>
+        <v>22.530366000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.338000</v>
+        <v>-142.33799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>81120.312469</v>
+        <v>81120.312468999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.533420</v>
+        <v>22.53342</v>
       </c>
       <c r="BF6" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.373000</v>
+        <v>-226.37299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>81131.066231</v>
+        <v>81131.066231000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.536407</v>
+        <v>22.536407000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1138.050000</v>
+        <v>1138.05</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.785000</v>
+        <v>-360.78500000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>81142.576925</v>
+        <v>81142.576925000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.539605</v>
+        <v>22.539605000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1269.040000</v>
+        <v>1269.04</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.804000</v>
+        <v>-567.80399999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>81153.018170</v>
+        <v>81153.018169999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.542505</v>
+        <v>22.542504999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1415.210000</v>
+        <v>1415.21</v>
       </c>
       <c r="BV6" s="1">
-        <v>-788.317000</v>
+        <v>-788.31700000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>81163.763014</v>
+        <v>81163.763013999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.545490</v>
+        <v>22.545490000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.650000</v>
+        <v>1575.65</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1018.290000</v>
+        <v>-1018.29</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>81175.333213</v>
+        <v>81175.333213000005</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.548704</v>
+        <v>22.548704000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1976.700000</v>
+        <v>1976.7</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1555.310000</v>
+        <v>-1555.31</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>81005.118109</v>
+        <v>81005.118109000003</v>
       </c>
       <c r="B7" s="1">
-        <v>22.501422</v>
+        <v>22.501422000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>908.363000</v>
+        <v>908.36300000000006</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.241000</v>
+        <v>-195.24100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>81015.492431</v>
+        <v>81015.492431000006</v>
       </c>
       <c r="G7" s="1">
         <v>22.504303</v>
       </c>
       <c r="H7" s="1">
-        <v>925.618000</v>
+        <v>925.61800000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.439000</v>
+        <v>-166.43899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>81025.927762</v>
+        <v>81025.927762000007</v>
       </c>
       <c r="L7" s="1">
-        <v>22.507202</v>
+        <v>22.507201999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>948.527000</v>
+        <v>948.52700000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.745000</v>
+        <v>-119.745</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>81036.466259</v>
+        <v>81036.466258999993</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.510130</v>
+        <v>22.51013</v>
       </c>
       <c r="R7" s="1">
-        <v>955.473000</v>
+        <v>955.47299999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.512000</v>
+        <v>-104.512</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>81046.734471</v>
+        <v>81046.734471000003</v>
       </c>
       <c r="V7" s="1">
-        <v>22.512982</v>
+        <v>22.512982000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>962.170000</v>
+        <v>962.17</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.579300</v>
+        <v>-90.579300000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>81056.928228</v>
+        <v>81056.928228000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.515813</v>
+        <v>22.515813000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>969.679000</v>
+        <v>969.67899999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.953800</v>
+        <v>-80.953800000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>81067.146299</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.518652</v>
+        <v>22.518651999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>974.858000</v>
+        <v>974.85799999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.307600</v>
+        <v>-80.307599999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>81077.657022</v>
+        <v>81077.657021999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.521571</v>
+        <v>22.521571000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>982.913000</v>
+        <v>982.91300000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.800100</v>
+        <v>-87.8001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>81087.972816</v>
+        <v>81087.972815999994</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.524437</v>
+        <v>22.524436999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>992.134000</v>
+        <v>992.13400000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.475000</v>
+        <v>-102.47499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>81098.637794</v>
+        <v>81098.637793999995</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.527399</v>
+        <v>22.527398999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.788000</v>
+        <v>-123.788</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>81109.673283</v>
+        <v>81109.673282999996</v>
       </c>
       <c r="AZ7" s="1">
         <v>22.530465</v>
       </c>
       <c r="BA7" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.351000</v>
+        <v>-142.351</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>81120.672565</v>
+        <v>81120.672565000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.533520</v>
+        <v>22.533519999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1058.510000</v>
+        <v>1058.51</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.373000</v>
+        <v>-226.37299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>81131.749223</v>
+        <v>81131.749223000006</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.536597</v>
       </c>
       <c r="BK7" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.781000</v>
+        <v>-360.78100000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>81142.690508</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.539636</v>
+        <v>22.539636000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1269.010000</v>
+        <v>1269.01</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.835000</v>
+        <v>-567.83500000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>81153.127290</v>
+        <v>81153.127290000004</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.542535</v>
+        <v>22.542535000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1415.220000</v>
+        <v>1415.22</v>
       </c>
       <c r="BV7" s="1">
-        <v>-788.207000</v>
+        <v>-788.20699999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>81164.188571</v>
+        <v>81164.188571000006</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.545608</v>
+        <v>22.545608000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.580000</v>
+        <v>1575.58</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1018.240000</v>
+        <v>-1018.24</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>81175.866875</v>
+        <v>81175.866875000007</v>
       </c>
       <c r="CD7" s="1">
         <v>22.548852</v>
       </c>
       <c r="CE7" s="1">
-        <v>1977.150000</v>
+        <v>1977.15</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1556.770000</v>
+        <v>-1556.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>81005.398847</v>
+        <v>81005.398847000004</v>
       </c>
       <c r="B8" s="1">
-        <v>22.501500</v>
+        <v>22.5015</v>
       </c>
       <c r="C8" s="1">
-        <v>908.449000</v>
+        <v>908.44899999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.398000</v>
+        <v>-195.398</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>81015.782095</v>
+        <v>81015.782095000002</v>
       </c>
       <c r="G8" s="1">
-        <v>22.504384</v>
+        <v>22.504384000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>925.276000</v>
+        <v>925.27599999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.407000</v>
+        <v>-166.40700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>81026.273010</v>
+        <v>81026.273010000004</v>
       </c>
       <c r="L8" s="1">
-        <v>22.507298</v>
+        <v>22.507297999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>948.570000</v>
+        <v>948.57</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.829000</v>
+        <v>-119.82899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>81036.813955</v>
+        <v>81036.813955000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.510226</v>
+        <v>22.510225999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>955.470000</v>
+        <v>955.47</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.498000</v>
+        <v>-104.498</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>81047.079653</v>
+        <v>81047.079652999993</v>
       </c>
       <c r="V8" s="1">
         <v>22.513078</v>
       </c>
       <c r="W8" s="1">
-        <v>962.058000</v>
+        <v>962.05799999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.591600</v>
+        <v>-90.5916</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>81057.626585</v>
+        <v>81057.626585000005</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.516007</v>
+        <v>22.516006999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>969.707000</v>
+        <v>969.70699999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.915100</v>
+        <v>-80.915099999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>81067.834283</v>
+        <v>81067.834283000004</v>
       </c>
       <c r="AF8" s="1">
         <v>22.518843</v>
       </c>
       <c r="AG8" s="1">
-        <v>974.861000</v>
+        <v>974.86099999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.316900</v>
+        <v>-80.316900000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>81078.007725</v>
+        <v>81078.007725000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.521669</v>
+        <v>22.521668999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>982.901000</v>
+        <v>982.90099999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.784400</v>
+        <v>-87.784400000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>81088.334399</v>
+        <v>81088.334398999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.524537</v>
+        <v>22.524536999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>992.133000</v>
+        <v>992.13300000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.475000</v>
+        <v>-102.47499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>81099.004337</v>
+        <v>81099.004337000006</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.527501</v>
+        <v>22.527501000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.776000</v>
+        <v>-123.776</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>81110.340435</v>
+        <v>81110.340435000006</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.530650</v>
+        <v>22.530650000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.339000</v>
+        <v>-142.339</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>81121.351587</v>
+        <v>81121.351586999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.533709</v>
+        <v>22.533709000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1058.530000</v>
+        <v>1058.53</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.394000</v>
+        <v>-226.39400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>81131.859831</v>
+        <v>81131.859830999994</v>
       </c>
       <c r="BJ8" s="1">
         <v>22.536628</v>
       </c>
       <c r="BK8" s="1">
-        <v>1138.020000</v>
+        <v>1138.02</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.826000</v>
+        <v>-360.82600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>81143.116040</v>
+        <v>81143.116039999994</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.539754</v>
+        <v>22.539753999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1269.070000</v>
+        <v>1269.07</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.818000</v>
+        <v>-567.81799999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>81153.561322</v>
+        <v>81153.561321999994</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.542656</v>
+        <v>22.542656000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1415.330000</v>
+        <v>1415.33</v>
       </c>
       <c r="BV8" s="1">
-        <v>-788.160000</v>
+        <v>-788.16</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>81164.638938</v>
+        <v>81164.638938000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.545733</v>
+        <v>22.545732999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.560000</v>
+        <v>1575.56</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1018.290000</v>
+        <v>-1018.29</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>81176.367835</v>
+        <v>81176.367834999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.548991</v>
+        <v>22.548991000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1976.440000</v>
+        <v>1976.44</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1556.540000</v>
+        <v>-1556.54</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>81005.742572</v>
+        <v>81005.742572000003</v>
       </c>
       <c r="B9" s="1">
-        <v>22.501595</v>
+        <v>22.501594999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>908.339000</v>
+        <v>908.33900000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.352000</v>
+        <v>-195.352</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>81016.125327</v>
+        <v>81016.125327000002</v>
       </c>
       <c r="G9" s="1">
         <v>22.504479</v>
       </c>
       <c r="H9" s="1">
-        <v>925.398000</v>
+        <v>925.39800000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.047000</v>
+        <v>-166.047</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>81026.617697</v>
+        <v>81026.617696999994</v>
       </c>
       <c r="L9" s="1">
-        <v>22.507394</v>
+        <v>22.507394000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>948.442000</v>
+        <v>948.44200000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.798000</v>
+        <v>-119.798</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>81037.166115</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.510324</v>
+        <v>22.510324000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>955.525000</v>
+        <v>955.52499999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.450000</v>
+        <v>-104.45</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>81047.762149</v>
+        <v>81047.762149000002</v>
       </c>
       <c r="V9" s="1">
-        <v>22.513267</v>
+        <v>22.513266999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>962.283000</v>
+        <v>962.28300000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.624900</v>
+        <v>-90.624899999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>81057.976300</v>
+        <v>81057.976299999995</v>
       </c>
       <c r="AA9" s="1">
         <v>22.516105</v>
       </c>
       <c r="AB9" s="1">
-        <v>969.749000</v>
+        <v>969.74900000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.901300</v>
+        <v>-80.901300000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>81068.177515</v>
+        <v>81068.177515000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.518938</v>
+        <v>22.518937999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>974.852000</v>
+        <v>974.85199999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.307300</v>
+        <v>-80.307299999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>81078.351452</v>
+        <v>81078.351452000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.521764</v>
+        <v>22.521764000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>982.921000</v>
+        <v>982.92100000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.783400</v>
+        <v>-87.7834</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>81088.689535</v>
+        <v>81088.689534999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.524636</v>
+        <v>22.524636000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>992.139000</v>
+        <v>992.13900000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.479000</v>
+        <v>-102.479</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>81099.683856</v>
+        <v>81099.683856000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.527690</v>
+        <v>22.52769</v>
       </c>
       <c r="AV9" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.787000</v>
+        <v>-123.78700000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>81110.750626</v>
+        <v>81110.750625999994</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.530764</v>
+        <v>22.530764000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.341000</v>
+        <v>-142.34100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>81121.785587</v>
+        <v>81121.785587000006</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.533829</v>
+        <v>22.533829000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1058.540000</v>
+        <v>1058.54</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.379000</v>
+        <v>-226.37899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>81132.214469</v>
+        <v>81132.214468999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.536726</v>
+        <v>22.536726000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.791000</v>
+        <v>-360.791</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>81143.513334</v>
+        <v>81143.513334000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.539865</v>
+        <v>22.539864999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1269.070000</v>
+        <v>1269.07</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.795000</v>
+        <v>-567.79499999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>81153.989377</v>
+        <v>81153.989377000005</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.542775</v>
+        <v>22.542774999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1415.450000</v>
+        <v>1415.45</v>
       </c>
       <c r="BV9" s="1">
-        <v>-788.134000</v>
+        <v>-788.13400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>81165.067979</v>
+        <v>81165.067978999999</v>
       </c>
       <c r="BY9" s="1">
         <v>22.545852</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.590000</v>
+        <v>1575.59</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1018.490000</v>
+        <v>-1018.49</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>81176.920416</v>
+        <v>81176.920415999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.549145</v>
+        <v>22.549144999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1976.710000</v>
+        <v>1976.71</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1555.240000</v>
+        <v>-1555.24</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>81006.082829</v>
+        <v>81006.082829000006</v>
       </c>
       <c r="B10" s="1">
-        <v>22.501690</v>
+        <v>22.50169</v>
       </c>
       <c r="C10" s="1">
-        <v>908.486000</v>
+        <v>908.48599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.343000</v>
+        <v>-195.34299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>81016.469054</v>
+        <v>81016.469054000001</v>
       </c>
       <c r="G10" s="1">
-        <v>22.504575</v>
+        <v>22.504574999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>925.215000</v>
+        <v>925.21500000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.328000</v>
+        <v>-166.328</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>81027.310112</v>
+        <v>81027.310112000006</v>
       </c>
       <c r="L10" s="1">
         <v>22.507586</v>
       </c>
       <c r="M10" s="1">
-        <v>948.680000</v>
+        <v>948.68</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.791000</v>
+        <v>-119.791</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>81037.857551</v>
+        <v>81037.857550999994</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.510516</v>
+        <v>22.510515999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>955.540000</v>
+        <v>955.54</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.465000</v>
+        <v>-104.465</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>81048.108854</v>
+        <v>81048.108854000006</v>
       </c>
       <c r="V10" s="1">
-        <v>22.513364</v>
+        <v>22.513363999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>962.302000</v>
+        <v>962.30200000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.633500</v>
+        <v>-90.633499999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>81058.324951</v>
+        <v>81058.324951000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.516201</v>
+        <v>22.516200999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>969.689000</v>
+        <v>969.68899999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.932500</v>
+        <v>-80.932500000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>81068.527161</v>
+        <v>81068.527161000005</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.519035</v>
+        <v>22.519034999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>974.835000</v>
+        <v>974.83500000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.300500</v>
+        <v>-80.3005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>81079.023004</v>
+        <v>81079.023004000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.521951</v>
+        <v>22.521951000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>982.916000</v>
+        <v>982.91600000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.795600</v>
+        <v>-87.795599999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>81089.362110</v>
+        <v>81089.362110000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.524823</v>
+        <v>22.524823000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>992.144000</v>
+        <v>992.14400000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.474000</v>
+        <v>-102.474</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>81100.099010</v>
+        <v>81100.099010000005</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.527805</v>
+        <v>22.527805000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.780000</v>
+        <v>-123.78</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>81111.133506</v>
+        <v>81111.133505999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.530870</v>
+        <v>22.53087</v>
       </c>
       <c r="BA10" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.342000</v>
+        <v>-142.34200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>81122.147666</v>
+        <v>81122.147666000004</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.533930</v>
+        <v>22.533930000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.404000</v>
+        <v>-226.404</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>81132.591925</v>
+        <v>81132.591925000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.536831</v>
+        <v>22.536830999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1138.010000</v>
+        <v>1138.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.801000</v>
+        <v>-360.80099999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>81143.934438</v>
+        <v>81143.934437999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.539982</v>
+        <v>22.539981999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1269.040000</v>
+        <v>1269.04</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.816000</v>
+        <v>-567.81600000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>81154.415400</v>
+        <v>81154.415399999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.542893</v>
+        <v>22.542892999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1415.540000</v>
+        <v>1415.54</v>
       </c>
       <c r="BV10" s="1">
-        <v>-788.044000</v>
+        <v>-788.04399999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>81165.491562</v>
+        <v>81165.491561999996</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.545970</v>
+        <v>22.545970000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.550000</v>
+        <v>1575.55</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1018.410000</v>
+        <v>-1018.41</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>81177.451595</v>
+        <v>81177.451595000006</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.549292</v>
+        <v>22.549292000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1977.400000</v>
+        <v>1977.4</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1556.570000</v>
+        <v>-1556.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>81006.766315</v>
+        <v>81006.766315000001</v>
       </c>
       <c r="B11" s="1">
-        <v>22.501880</v>
+        <v>22.50188</v>
       </c>
       <c r="C11" s="1">
-        <v>908.478000</v>
+        <v>908.47799999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.309000</v>
+        <v>-195.309</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>81017.159485</v>
+        <v>81017.159484999996</v>
       </c>
       <c r="G11" s="1">
-        <v>22.504767</v>
+        <v>22.504767000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>925.383000</v>
+        <v>925.38300000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.469000</v>
+        <v>-166.46899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>81027.655327</v>
       </c>
       <c r="L11" s="1">
-        <v>22.507682</v>
+        <v>22.507681999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>948.605000</v>
+        <v>948.60500000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.723000</v>
+        <v>-119.723</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>81038.208210</v>
+        <v>81038.208209999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.510613</v>
+        <v>22.510612999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>955.484000</v>
+        <v>955.48400000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.510000</v>
+        <v>-104.51</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>81048.451626</v>
+        <v>81048.451625999995</v>
       </c>
       <c r="V11" s="1">
-        <v>22.513459</v>
+        <v>22.513459000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>962.205000</v>
+        <v>962.20500000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.691000</v>
+        <v>-90.691000000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>81058.988598</v>
+        <v>81058.988597999996</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.516386</v>
+        <v>22.516386000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>969.782000</v>
+        <v>969.78200000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.953200</v>
+        <v>-80.953199999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>81069.190312</v>
+        <v>81069.190312000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.519220</v>
+        <v>22.519220000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>974.864000</v>
+        <v>974.86400000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.347000</v>
+        <v>-80.346999999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>81079.402443</v>
+        <v>81079.402442999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.522056</v>
+        <v>22.522055999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>982.906000</v>
+        <v>982.90599999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.820400</v>
+        <v>-87.820400000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>81089.795615</v>
+        <v>81089.795614999995</v>
       </c>
       <c r="AP11" s="1">
         <v>22.524943</v>
       </c>
       <c r="AQ11" s="1">
-        <v>992.145000</v>
+        <v>992.14499999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.488000</v>
+        <v>-102.488</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>81100.460591</v>
+        <v>81100.460590999995</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.527906</v>
+        <v>22.527906000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.781000</v>
+        <v>-123.78100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>81111.480706</v>
+        <v>81111.480706000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>22.530967</v>
       </c>
       <c r="BA11" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.339000</v>
+        <v>-142.339</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>81122.507268</v>
+        <v>81122.507268000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.534030</v>
+        <v>22.534030000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1058.530000</v>
+        <v>1058.53</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.392000</v>
+        <v>-226.392</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>81133.022948</v>
+        <v>81133.022947999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.536951</v>
+        <v>22.536950999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1138.010000</v>
+        <v>1138.01</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.797000</v>
+        <v>-360.79700000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>81144.332231</v>
+        <v>81144.332230999993</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.540092</v>
+        <v>22.540092000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1269.020000</v>
+        <v>1269.02</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.774000</v>
+        <v>-567.774</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>81154.831117</v>
+        <v>81154.831116999994</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.543009</v>
+        <v>22.543009000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1415.700000</v>
+        <v>1415.7</v>
       </c>
       <c r="BV11" s="1">
-        <v>-788.138000</v>
+        <v>-788.13800000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>81165.911709</v>
+        <v>81165.911709000007</v>
       </c>
       <c r="BY11" s="1">
         <v>22.546087</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.580000</v>
+        <v>1575.58</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1018.440000</v>
+        <v>-1018.44</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>81177.970447</v>
@@ -3034,3082 +3450,3082 @@
         <v>22.549436</v>
       </c>
       <c r="CE11" s="1">
-        <v>1976.570000</v>
+        <v>1976.57</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1556.280000</v>
+        <v>-1556.28</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>81007.107562</v>
+        <v>81007.107562000005</v>
       </c>
       <c r="B12" s="1">
-        <v>22.501974</v>
+        <v>22.501974000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>908.381000</v>
+        <v>908.38099999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.276000</v>
+        <v>-195.27600000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>81017.504205</v>
+        <v>81017.504205000005</v>
       </c>
       <c r="G12" s="1">
-        <v>22.504862</v>
+        <v>22.504861999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>925.975000</v>
+        <v>925.97500000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.561000</v>
+        <v>-166.56100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>81028.001039</v>
+        <v>81028.001038999995</v>
       </c>
       <c r="L12" s="1">
-        <v>22.507778</v>
+        <v>22.507777999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>948.603000</v>
+        <v>948.60299999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.749000</v>
+        <v>-119.749</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>81038.882274</v>
+        <v>81038.882274000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.510801</v>
+        <v>22.510801000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>955.429000</v>
+        <v>955.42899999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.497000</v>
+        <v>-104.497</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>81049.114739</v>
+        <v>81049.114738999997</v>
       </c>
       <c r="V12" s="1">
-        <v>22.513643</v>
+        <v>22.513642999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>962.178000</v>
+        <v>962.178</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.659300</v>
+        <v>-90.659300000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>81059.369029</v>
+        <v>81059.369028999994</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.516491</v>
+        <v>22.516490999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>969.748000</v>
+        <v>969.74800000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.901200</v>
+        <v>-80.901200000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>81069.553880</v>
+        <v>81069.553880000007</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.519321</v>
+        <v>22.519321000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>974.882000</v>
+        <v>974.88199999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.320100</v>
+        <v>-80.320099999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>81079.751626</v>
+        <v>81079.751625999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.522153</v>
+        <v>22.522152999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>982.907000</v>
+        <v>982.90700000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.797400</v>
+        <v>-87.797399999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>81090.180014</v>
+        <v>81090.180013999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.525050</v>
+        <v>22.52505</v>
       </c>
       <c r="AQ12" s="1">
-        <v>992.148000</v>
+        <v>992.14800000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.465000</v>
+        <v>-102.465</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>81100.825150</v>
+        <v>81100.825150000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.528007</v>
+        <v>22.528006999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.774000</v>
+        <v>-123.774</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>81111.915698</v>
+        <v>81111.915697999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>22.531088</v>
       </c>
       <c r="BA12" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.332000</v>
+        <v>-142.33199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>81122.925395</v>
+        <v>81122.925394999998</v>
       </c>
       <c r="BE12" s="1">
         <v>22.534146</v>
       </c>
       <c r="BF12" s="1">
-        <v>1058.530000</v>
+        <v>1058.53</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.361000</v>
+        <v>-226.36099999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>81133.350803</v>
+        <v>81133.350802999994</v>
       </c>
       <c r="BJ12" s="1">
         <v>22.537042</v>
       </c>
       <c r="BK12" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.823000</v>
+        <v>-360.82299999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>81144.753860</v>
+        <v>81144.753859999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.540209</v>
+        <v>22.540209000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1269.030000</v>
+        <v>1269.03</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.822000</v>
+        <v>-567.822</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>81155.257624</v>
+        <v>81155.257624000005</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.543127</v>
+        <v>22.543126999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1415.780000</v>
+        <v>1415.78</v>
       </c>
       <c r="BV12" s="1">
-        <v>-788.160000</v>
+        <v>-788.16</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>81166.337736</v>
+        <v>81166.337736000001</v>
       </c>
       <c r="BY12" s="1">
         <v>22.546205</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.660000</v>
+        <v>1575.66</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1018.200000</v>
+        <v>-1018.2</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>81178.521995</v>
+        <v>81178.521995000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.549589</v>
+        <v>22.549589000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1976.620000</v>
+        <v>1976.62</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1555.150000</v>
+        <v>-1555.15</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>81007.451290</v>
+        <v>81007.451289999997</v>
       </c>
       <c r="B13" s="1">
-        <v>22.502070</v>
+        <v>22.50207</v>
       </c>
       <c r="C13" s="1">
-        <v>908.368000</v>
+        <v>908.36800000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.475000</v>
+        <v>-195.47499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>81017.849917</v>
       </c>
       <c r="G13" s="1">
-        <v>22.504958</v>
+        <v>22.504957999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>925.675000</v>
+        <v>925.67499999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.109000</v>
+        <v>-166.10900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>81028.665182</v>
+        <v>81028.665181999997</v>
       </c>
       <c r="L13" s="1">
         <v>22.507963</v>
       </c>
       <c r="M13" s="1">
-        <v>948.690000</v>
+        <v>948.69</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.767000</v>
+        <v>-119.767</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>81039.265707</v>
+        <v>81039.265706999999</v>
       </c>
       <c r="Q13" s="1">
         <v>22.510907</v>
       </c>
       <c r="R13" s="1">
-        <v>955.445000</v>
+        <v>955.44500000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.465000</v>
+        <v>-104.465</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>81049.482808</v>
+        <v>81049.482808000001</v>
       </c>
       <c r="V13" s="1">
         <v>22.513745</v>
       </c>
       <c r="W13" s="1">
-        <v>962.310000</v>
+        <v>962.31</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.708000</v>
+        <v>-90.707999999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>81059.717717</v>
+        <v>81059.717717000007</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.516588</v>
+        <v>22.516587999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>969.762000</v>
+        <v>969.76199999999994</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.950200</v>
+        <v>-80.950199999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>81069.897608</v>
+        <v>81069.897607999999</v>
       </c>
       <c r="AF13" s="1">
         <v>22.519416</v>
       </c>
       <c r="AG13" s="1">
-        <v>974.841000</v>
+        <v>974.84100000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.321300</v>
+        <v>-80.321299999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>81080.097834</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.522249</v>
+        <v>22.522248999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>982.891000</v>
+        <v>982.89099999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.791400</v>
+        <v>-87.791399999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>81090.600620</v>
+        <v>81090.600619999997</v>
       </c>
       <c r="AP13" s="1">
         <v>22.525167</v>
       </c>
       <c r="AQ13" s="1">
-        <v>992.140000</v>
+        <v>992.14</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.481000</v>
+        <v>-102.48099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>81101.257166</v>
+        <v>81101.257165999996</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.528127</v>
+        <v>22.528127000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1003.510000</v>
+        <v>1003.51</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.779000</v>
+        <v>-123.779</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>81112.207876</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.531169</v>
+        <v>22.531168999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.317000</v>
+        <v>-142.31700000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>81123.299873</v>
+        <v>81123.299872999996</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.534250</v>
+        <v>22.53425</v>
       </c>
       <c r="BF13" s="1">
-        <v>1058.510000</v>
+        <v>1058.51</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.380000</v>
+        <v>-226.38</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>81133.738708</v>
+        <v>81133.738708000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.537150</v>
+        <v>22.53715</v>
       </c>
       <c r="BK13" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.815000</v>
+        <v>-360.815</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>81145.147156</v>
+        <v>81145.147156000006</v>
       </c>
       <c r="BO13" s="1">
         <v>22.540319</v>
       </c>
       <c r="BP13" s="1">
-        <v>1269.040000</v>
+        <v>1269.04</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.846000</v>
+        <v>-567.846</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>81155.671270</v>
+        <v>81155.671270000006</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.543242</v>
+        <v>22.543241999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1415.810000</v>
+        <v>1415.81</v>
       </c>
       <c r="BV13" s="1">
-        <v>-788.363000</v>
+        <v>-788.36300000000006</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>81166.756856</v>
+        <v>81166.756856000007</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.546321</v>
+        <v>22.546320999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1018.380000</v>
+        <v>-1018.38</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>81179.054200</v>
+        <v>81179.054199999999</v>
       </c>
       <c r="CD13" s="1">
         <v>22.549737</v>
       </c>
       <c r="CE13" s="1">
-        <v>1976.760000</v>
+        <v>1976.76</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1556.840000</v>
+        <v>-1556.84</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>81008.116425</v>
       </c>
       <c r="B14" s="1">
-        <v>22.502255</v>
+        <v>22.502255000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>908.424000</v>
+        <v>908.42399999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.389000</v>
+        <v>-195.38900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>81018.507115</v>
       </c>
       <c r="G14" s="1">
-        <v>22.505141</v>
+        <v>22.505140999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>925.742000</v>
+        <v>925.74199999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.961000</v>
+        <v>-165.96100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>81029.038669</v>
+        <v>81029.038669000001</v>
       </c>
       <c r="L14" s="1">
-        <v>22.508066</v>
+        <v>22.508065999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>948.615000</v>
+        <v>948.61500000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.788000</v>
+        <v>-119.788</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>81039.614897</v>
+        <v>81039.614897000007</v>
       </c>
       <c r="Q14" s="1">
         <v>22.511004</v>
       </c>
       <c r="R14" s="1">
-        <v>955.499000</v>
+        <v>955.49900000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.451000</v>
+        <v>-104.45099999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>81049.824514</v>
+        <v>81049.824514000007</v>
       </c>
       <c r="V14" s="1">
-        <v>22.513840</v>
+        <v>22.513839999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>962.270000</v>
+        <v>962.27</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.730900</v>
+        <v>-90.730900000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>81060.068885</v>
+        <v>81060.068885000001</v>
       </c>
       <c r="AA14" s="1">
         <v>22.516686</v>
       </c>
       <c r="AB14" s="1">
-        <v>969.687000</v>
+        <v>969.68700000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.905400</v>
+        <v>-80.9054</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>81070.240839</v>
+        <v>81070.240839000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.519511</v>
+        <v>22.519511000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>974.876000</v>
+        <v>974.87599999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.303700</v>
+        <v>-80.303700000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>81080.529885</v>
+        <v>81080.529884999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.522369</v>
+        <v>22.522369000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>982.878000</v>
+        <v>982.87800000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.820300</v>
+        <v>-87.820300000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>81090.898220</v>
+        <v>81090.898220000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.525250</v>
+        <v>22.52525</v>
       </c>
       <c r="AQ14" s="1">
-        <v>992.157000</v>
+        <v>992.15700000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.477000</v>
+        <v>-102.477</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>81101.555262</v>
+        <v>81101.555261999994</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.528210</v>
+        <v>22.528210000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.786000</v>
+        <v>-123.786</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>81112.570911</v>
+        <v>81112.570911000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.531270</v>
+        <v>22.531269999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.342000</v>
+        <v>-142.34200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>81123.590033</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.534331</v>
+        <v>22.534331000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.383000</v>
+        <v>-226.38300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>81134.117619</v>
+        <v>81134.117618999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.537255</v>
+        <v>22.537254999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1138.040000</v>
+        <v>1138.04</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.814000</v>
+        <v>-360.81400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>81145.578708</v>
+        <v>81145.578708000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.540439</v>
+        <v>22.540438999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1269.080000</v>
+        <v>1269.08</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-567.807000</v>
+        <v>-567.80700000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>81156.101334</v>
+        <v>81156.101334000006</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.543361</v>
+        <v>22.543361000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1415.920000</v>
+        <v>1415.92</v>
       </c>
       <c r="BV14" s="1">
-        <v>-788.444000</v>
+        <v>-788.44399999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>81167.202263</v>
+        <v>81167.202262999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.546445</v>
+        <v>22.546444999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.600000</v>
+        <v>1575.6</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1018.440000</v>
+        <v>-1018.44</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>81179.571496</v>
+        <v>81179.571496000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.549881</v>
+        <v>22.549880999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1976.530000</v>
+        <v>1976.53</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1555.760000</v>
+        <v>-1555.76</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>81008.473545</v>
+        <v>81008.473545000001</v>
       </c>
       <c r="B15" s="1">
         <v>22.502354</v>
       </c>
       <c r="C15" s="1">
-        <v>908.237000</v>
+        <v>908.23699999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.425000</v>
+        <v>-195.42500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>81018.881596</v>
+        <v>81018.881596000007</v>
       </c>
       <c r="G15" s="1">
-        <v>22.505245</v>
+        <v>22.505244999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>925.422000</v>
+        <v>925.42200000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.288000</v>
+        <v>-166.28800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>81029.383389</v>
+        <v>81029.383388999995</v>
       </c>
       <c r="L15" s="1">
-        <v>22.508162</v>
+        <v>22.508161999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>948.692000</v>
+        <v>948.69200000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.849000</v>
+        <v>-119.849</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>81039.961104</v>
+        <v>81039.961104000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.511100</v>
+        <v>22.511099999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>955.495000</v>
+        <v>955.495</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.487000</v>
+        <v>-104.48699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>81050.176177</v>
+        <v>81050.176177000001</v>
       </c>
       <c r="V15" s="1">
         <v>22.513938</v>
       </c>
       <c r="W15" s="1">
-        <v>962.227000</v>
+        <v>962.22699999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.684700</v>
+        <v>-90.684700000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>81060.500436</v>
+        <v>81060.500436000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.516806</v>
+        <v>22.516805999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>969.680000</v>
+        <v>969.68</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.878800</v>
+        <v>-80.878799999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>81070.677319</v>
+        <v>81070.677318999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.519633</v>
+        <v>22.519632999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>974.852000</v>
+        <v>974.85199999999998</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.306100</v>
+        <v>-80.306100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>81080.804634</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.522446</v>
+        <v>22.522445999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>982.904000</v>
+        <v>982.904</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.784600</v>
+        <v>-87.784599999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>81091.257852</v>
+        <v>81091.257851999995</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.525349</v>
+        <v>22.525348999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>992.140000</v>
+        <v>992.14</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.476000</v>
+        <v>-102.476</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>81101.922301</v>
+        <v>81101.922300999999</v>
       </c>
       <c r="AU15" s="1">
         <v>22.528312</v>
       </c>
       <c r="AV15" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.784000</v>
+        <v>-123.78400000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>81112.927535</v>
+        <v>81112.927534999995</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.531369</v>
+        <v>22.531369000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.337000</v>
+        <v>-142.33699999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>81124.169856</v>
+        <v>81124.169855999993</v>
       </c>
       <c r="BE15" s="1">
         <v>22.534492</v>
       </c>
       <c r="BF15" s="1">
-        <v>1058.540000</v>
+        <v>1058.54</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.374000</v>
+        <v>-226.374</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>81134.867074</v>
+        <v>81134.867073999994</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.537463</v>
+        <v>22.537462999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1138.040000</v>
+        <v>1138.04</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.815000</v>
+        <v>-360.815</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>81145.967570</v>
+        <v>81145.967569999993</v>
       </c>
       <c r="BO15" s="1">
         <v>22.540547</v>
       </c>
       <c r="BP15" s="1">
-        <v>1269.040000</v>
+        <v>1269.04</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.799000</v>
+        <v>-567.79899999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>81156.531836</v>
+        <v>81156.531835999995</v>
       </c>
       <c r="BT15" s="1">
         <v>22.543481</v>
       </c>
       <c r="BU15" s="1">
-        <v>1415.840000</v>
+        <v>1415.84</v>
       </c>
       <c r="BV15" s="1">
-        <v>-788.582000</v>
+        <v>-788.58199999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>81167.623398</v>
+        <v>81167.623397999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.546562</v>
+        <v>22.546562000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.720000</v>
+        <v>1575.72</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1018.370000</v>
+        <v>-1018.37</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>81180.438005</v>
+        <v>81180.438005000004</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.550122</v>
+        <v>22.550122000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1977.000000</v>
+        <v>1977</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1555.340000</v>
+        <v>-1555.34</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>81008.818264</v>
+        <v>81008.818264000001</v>
       </c>
       <c r="B16" s="1">
-        <v>22.502450</v>
+        <v>22.50245</v>
       </c>
       <c r="C16" s="1">
-        <v>908.523000</v>
+        <v>908.52300000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.276000</v>
+        <v>-195.27600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>81019.227306</v>
+        <v>81019.227306000001</v>
       </c>
       <c r="G16" s="1">
-        <v>22.505341</v>
+        <v>22.505341000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>925.712000</v>
+        <v>925.71199999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.761000</v>
+        <v>-166.761</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>81029.731084</v>
+        <v>81029.731083999999</v>
       </c>
       <c r="L16" s="1">
-        <v>22.508259</v>
+        <v>22.508258999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>948.652000</v>
+        <v>948.65200000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.818000</v>
+        <v>-119.818</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>81040.390110</v>
+        <v>81040.390109999993</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.511219</v>
+        <v>22.511219000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>955.485000</v>
+        <v>955.48500000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.498000</v>
+        <v>-104.498</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>81050.601281</v>
+        <v>81050.601280999996</v>
       </c>
       <c r="V16" s="1">
         <v>22.514056</v>
       </c>
       <c r="W16" s="1">
-        <v>962.200000</v>
+        <v>962.2</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.655500</v>
+        <v>-90.655500000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>81060.777209</v>
+        <v>81060.777209000007</v>
       </c>
       <c r="AA16" s="1">
         <v>22.516883</v>
       </c>
       <c r="AB16" s="1">
-        <v>969.711000</v>
+        <v>969.71100000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.959700</v>
+        <v>-80.959699999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>81070.937718</v>
+        <v>81070.937718000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.519705</v>
+        <v>22.519704999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>974.836000</v>
+        <v>974.83600000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.304500</v>
+        <v>-80.304500000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>81081.156297</v>
+        <v>81081.156296999994</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.522543</v>
+        <v>22.522542999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>982.940000</v>
+        <v>982.94</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.790800</v>
+        <v>-87.790800000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>81091.617452</v>
+        <v>81091.617452000006</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.525449</v>
+        <v>22.525448999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>992.164000</v>
+        <v>992.16399999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.483000</v>
+        <v>-102.483</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>81102.282931</v>
+        <v>81102.282930999994</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.528412</v>
+        <v>22.528411999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.780000</v>
+        <v>-123.78</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>81113.649715</v>
+        <v>81113.649715000007</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.531569</v>
+        <v>22.531569000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1013.150000</v>
+        <v>1013.15</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.333000</v>
+        <v>-142.333</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>81124.313729</v>
+        <v>81124.313729000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.534532</v>
+        <v>22.534531999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1058.540000</v>
+        <v>1058.54</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.388000</v>
+        <v>-226.38800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>81135.241090</v>
+        <v>81135.241089999996</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.537567</v>
+        <v>22.537566999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1138.010000</v>
+        <v>1138.01</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.801000</v>
+        <v>-360.80099999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>81146.387154</v>
+        <v>81146.387153999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.540663</v>
+        <v>22.540662999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.804000</v>
+        <v>-567.80399999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>81156.939545</v>
+        <v>81156.939545000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.543594</v>
+        <v>22.543593999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1415.810000</v>
+        <v>1415.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-788.726000</v>
+        <v>-788.726</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>81168.366375</v>
+        <v>81168.366374999998</v>
       </c>
       <c r="BY16" s="1">
         <v>22.546768</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.700000</v>
+        <v>1575.7</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1018.490000</v>
+        <v>-1018.49</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>81180.652277</v>
+        <v>81180.652277000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.550181</v>
+        <v>22.550180999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1976.910000</v>
+        <v>1976.91</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1556.670000</v>
+        <v>-1556.67</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>81009.160612</v>
+        <v>81009.160612000007</v>
       </c>
       <c r="B17" s="1">
-        <v>22.502545</v>
+        <v>22.502545000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>908.364000</v>
+        <v>908.36400000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.467000</v>
+        <v>-195.46700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>81019.575498</v>
+        <v>81019.575498000006</v>
       </c>
       <c r="G17" s="1">
-        <v>22.505438</v>
+        <v>22.505438000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>925.756000</v>
+        <v>925.75599999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.226000</v>
+        <v>-166.226</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>81030.164588</v>
       </c>
       <c r="L17" s="1">
-        <v>22.508379</v>
+        <v>22.508379000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>948.532000</v>
+        <v>948.53200000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.826000</v>
+        <v>-119.82599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>81040.670350</v>
+        <v>81040.67035</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.511297</v>
+        <v>22.511296999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>955.476000</v>
+        <v>955.476</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.501000</v>
+        <v>-104.501</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>81050.877521</v>
+        <v>81050.877521000002</v>
       </c>
       <c r="V17" s="1">
-        <v>22.514133</v>
+        <v>22.514133000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>962.154000</v>
+        <v>962.154</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.709200</v>
+        <v>-90.709199999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>81061.128835</v>
+        <v>81061.128834999996</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.516980</v>
+        <v>22.51698</v>
       </c>
       <c r="AB17" s="1">
-        <v>969.753000</v>
+        <v>969.75300000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.904500</v>
+        <v>-80.904499999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>81071.287397</v>
+        <v>81071.287396999993</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.519802</v>
+        <v>22.519801999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>974.872000</v>
+        <v>974.87199999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.304900</v>
+        <v>-80.304900000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>81081.505978</v>
+        <v>81081.505978000001</v>
       </c>
       <c r="AK17" s="1">
         <v>22.522641</v>
       </c>
       <c r="AL17" s="1">
-        <v>982.913000</v>
+        <v>982.91300000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.808300</v>
+        <v>-87.808300000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>81092.337115</v>
+        <v>81092.337115000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.525649</v>
+        <v>22.525649000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>992.137000</v>
+        <v>992.13699999999994</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.474000</v>
+        <v>-102.474</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>81103.014532</v>
+        <v>81103.014532000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.528615</v>
+        <v>22.528614999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.766000</v>
+        <v>-123.76600000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>81114.024685</v>
+        <v>81114.024684999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.531674</v>
+        <v>22.531673999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.333000</v>
+        <v>-142.333</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>81124.675776</v>
+        <v>81124.675776000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.534632</v>
+        <v>22.534631999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1058.530000</v>
+        <v>1058.53</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.377000</v>
+        <v>-226.37700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>81135.617522</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.537672</v>
+        <v>22.537672000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.819000</v>
+        <v>-360.81900000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>81147.096434</v>
+        <v>81147.096434000006</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.540860</v>
+        <v>22.540859999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.823000</v>
+        <v>-567.82299999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>81157.681060</v>
+        <v>81157.681060000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.543800</v>
+        <v>22.543800000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1415.660000</v>
+        <v>1415.66</v>
       </c>
       <c r="BV17" s="1">
-        <v>-788.768000</v>
+        <v>-788.76800000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>81168.530054</v>
+        <v>81168.530054000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.546814</v>
+        <v>22.546814000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.520000</v>
+        <v>1575.52</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1018.340000</v>
+        <v>-1018.34</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>81181.171588</v>
+        <v>81181.171587999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.550325</v>
+        <v>22.550325000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1976.520000</v>
+        <v>1976.52</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1555.870000</v>
+        <v>-1555.87</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>81009.591063</v>
       </c>
       <c r="B18" s="1">
-        <v>22.502664</v>
+        <v>22.502663999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>908.560000</v>
+        <v>908.56</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.493000</v>
+        <v>-195.49299999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>81020.009002</v>
+        <v>81020.009002000006</v>
       </c>
       <c r="G18" s="1">
-        <v>22.505558</v>
+        <v>22.505558000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>926.038000</v>
+        <v>926.03800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.236000</v>
+        <v>-166.23599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>81030.442843</v>
+        <v>81030.442842999997</v>
       </c>
       <c r="L18" s="1">
-        <v>22.508456</v>
+        <v>22.508455999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>948.556000</v>
+        <v>948.55600000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.862000</v>
+        <v>-119.86199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>81041.018078</v>
+        <v>81041.018077999994</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.511394</v>
+        <v>22.511393999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>955.454000</v>
+        <v>955.45399999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.504000</v>
+        <v>-104.504</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>81051.223233</v>
+        <v>81051.223232999997</v>
       </c>
       <c r="V18" s="1">
         <v>22.514229</v>
       </c>
       <c r="W18" s="1">
-        <v>962.171000</v>
+        <v>962.17100000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.656800</v>
+        <v>-90.656800000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>81061.475042</v>
+        <v>81061.475042000005</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.517076</v>
+        <v>22.517075999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>969.691000</v>
+        <v>969.69100000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.848300</v>
+        <v>-80.848299999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>81071.625669</v>
+        <v>81071.625669000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.519896</v>
+        <v>22.519895999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>974.836000</v>
+        <v>974.83600000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.330500</v>
+        <v>-80.330500000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>81082.201367</v>
+        <v>81082.201367000001</v>
       </c>
       <c r="AK18" s="1">
         <v>22.522834</v>
       </c>
       <c r="AL18" s="1">
-        <v>982.886000</v>
+        <v>982.88599999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.794800</v>
+        <v>-87.794799999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>81092.697209</v>
+        <v>81092.697209000005</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.525749</v>
+        <v>22.525749000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>992.146000</v>
+        <v>992.14599999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.470000</v>
+        <v>-102.47</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>81103.409338</v>
+        <v>81103.409337999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.528725</v>
+        <v>22.528725000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.783000</v>
+        <v>-123.783</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>81114.406109</v>
+        <v>81114.406109000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>22.531779</v>
       </c>
       <c r="BA18" s="1">
-        <v>1013.170000</v>
+        <v>1013.17</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.339000</v>
+        <v>-142.339</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>81125.346896</v>
+        <v>81125.346896000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.534819</v>
+        <v>22.534818999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.385000</v>
+        <v>-226.38499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>81136.304016</v>
+        <v>81136.304015999995</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.537862</v>
+        <v>22.537862000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1138.020000</v>
+        <v>1138.02</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.796000</v>
+        <v>-360.79599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>81147.206049</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.540891</v>
+        <v>22.540890999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1269.020000</v>
+        <v>1269.02</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.806000</v>
+        <v>-567.80600000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>81157.797124</v>
+        <v>81157.797124000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.543833</v>
+        <v>22.543832999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1415.610000</v>
+        <v>1415.61</v>
       </c>
       <c r="BV18" s="1">
-        <v>-788.775000</v>
+        <v>-788.77499999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>81168.953637</v>
+        <v>81168.953636999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.546932</v>
+        <v>22.546932000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.590000</v>
+        <v>1575.59</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1018.260000</v>
+        <v>-1018.26</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>81181.724164</v>
+        <v>81181.724163999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.550479</v>
+        <v>22.550478999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1977.150000</v>
+        <v>1977.15</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1554.780000</v>
+        <v>-1554.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>81009.858871</v>
+        <v>81009.858871000004</v>
       </c>
       <c r="B19" s="1">
-        <v>22.502739</v>
+        <v>22.502738999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>908.495000</v>
+        <v>908.495</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.482000</v>
+        <v>-195.482</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>81020.268409</v>
+        <v>81020.268408999997</v>
       </c>
       <c r="G19" s="1">
-        <v>22.505630</v>
+        <v>22.50563</v>
       </c>
       <c r="H19" s="1">
-        <v>925.665000</v>
+        <v>925.66499999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.224000</v>
+        <v>-166.22399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>81030.787596</v>
+        <v>81030.787595999995</v>
       </c>
       <c r="L19" s="1">
-        <v>22.508552</v>
+        <v>22.508552000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>948.622000</v>
+        <v>948.62199999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.650000</v>
+        <v>-119.65</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>81041.366733</v>
+        <v>81041.366733000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.511491</v>
+        <v>22.511490999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>955.459000</v>
+        <v>955.45899999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.473000</v>
+        <v>-104.473</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>81051.565968</v>
+        <v>81051.565967999995</v>
       </c>
       <c r="V19" s="1">
-        <v>22.514324</v>
+        <v>22.514323999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>962.156000</v>
+        <v>962.15599999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.598400</v>
+        <v>-90.598399999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>81062.170929</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.517270</v>
+        <v>22.51727</v>
       </c>
       <c r="AB19" s="1">
-        <v>969.745000</v>
+        <v>969.745</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.945400</v>
+        <v>-80.945400000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>81072.319076</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.520089</v>
+        <v>22.520088999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>974.888000</v>
+        <v>974.88800000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.289200</v>
+        <v>-80.289199999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>81082.546583</v>
+        <v>81082.546583000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.522930</v>
+        <v>22.522929999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>982.893000</v>
+        <v>982.89300000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.812500</v>
+        <v>-87.8125</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>81093.060284</v>
+        <v>81093.060284000007</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.525850</v>
+        <v>22.525849999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>992.132000</v>
+        <v>992.13199999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.478000</v>
+        <v>-102.47799999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>81103.771387</v>
+        <v>81103.771387000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.528825</v>
+        <v>22.528825000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1003.550000</v>
+        <v>1003.55</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.779000</v>
+        <v>-123.779</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>81115.075212</v>
+        <v>81115.075211999996</v>
       </c>
       <c r="AZ19" s="1">
         <v>22.531965</v>
       </c>
       <c r="BA19" s="1">
-        <v>1013.180000</v>
+        <v>1013.18</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.321000</v>
+        <v>-142.321</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>81125.786319</v>
+        <v>81125.786319000006</v>
       </c>
       <c r="BE19" s="1">
         <v>22.534941</v>
       </c>
       <c r="BF19" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.382000</v>
+        <v>-226.38200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>81136.742447</v>
+        <v>81136.742446999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.537984</v>
+        <v>22.537984000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1138.040000</v>
+        <v>1138.04</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.811000</v>
+        <v>-360.81099999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>81147.628641</v>
+        <v>81147.628641000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.541008</v>
+        <v>22.541008000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.814000</v>
+        <v>-567.81399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>81158.257448</v>
+        <v>81158.257448000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.543960</v>
+        <v>22.543959999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1415.490000</v>
+        <v>1415.49</v>
       </c>
       <c r="BV19" s="1">
-        <v>-788.800000</v>
+        <v>-788.8</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>81169.404501</v>
+        <v>81169.404500999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.547057</v>
+        <v>22.547056999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.600000</v>
+        <v>1575.6</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1018.430000</v>
+        <v>-1018.43</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>81182.252867</v>
+        <v>81182.252867000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.550626</v>
+        <v>22.550626000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1976.600000</v>
+        <v>1976.6</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1556.390000</v>
+        <v>-1556.39</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>81010.201607</v>
+        <v>81010.201606999995</v>
       </c>
       <c r="B20" s="1">
         <v>22.502834</v>
       </c>
       <c r="C20" s="1">
-        <v>908.421000</v>
+        <v>908.42100000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.375000</v>
+        <v>-195.375</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>81020.612175</v>
+        <v>81020.612175000002</v>
       </c>
       <c r="G20" s="1">
-        <v>22.505726</v>
+        <v>22.505725999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>925.353000</v>
+        <v>925.35299999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.255000</v>
+        <v>-166.255</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>81031.133275</v>
       </c>
       <c r="L20" s="1">
-        <v>22.508648</v>
+        <v>22.508648000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>948.683000</v>
+        <v>948.68299999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.869000</v>
+        <v>-119.869</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>81042.065100</v>
+        <v>81042.065100000007</v>
       </c>
       <c r="Q20" s="1">
         <v>22.511685</v>
       </c>
       <c r="R20" s="1">
-        <v>955.476000</v>
+        <v>955.476</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.460000</v>
+        <v>-104.46</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>81052.251471</v>
+        <v>81052.251470999996</v>
       </c>
       <c r="V20" s="1">
-        <v>22.514514</v>
+        <v>22.514513999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>962.154000</v>
+        <v>962.154</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.707800</v>
+        <v>-90.707800000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>81062.519121</v>
+        <v>81062.519121000005</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.517366</v>
+        <v>22.517365999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>969.771000</v>
+        <v>969.77099999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.958900</v>
+        <v>-80.9589</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>81072.658836</v>
+        <v>81072.658836000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.520183</v>
+        <v>22.520182999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>974.871000</v>
+        <v>974.87099999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.274000</v>
+        <v>-80.274000000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>81082.897254</v>
+        <v>81082.897253999996</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.523027</v>
+        <v>22.523026999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>982.878000</v>
+        <v>982.87800000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.793700</v>
+        <v>-87.793700000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>81093.731368</v>
+        <v>81093.731367999993</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.526036</v>
+        <v>22.526036000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>992.157000</v>
+        <v>992.15700000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.473000</v>
+        <v>-102.473</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>81104.445984</v>
+        <v>81104.445984000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.529013</v>
+        <v>22.529012999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.765000</v>
+        <v>-123.765</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>81115.489868</v>
+        <v>81115.489868000004</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.532081</v>
+        <v>22.532081000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1013.180000</v>
+        <v>1013.18</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.322000</v>
+        <v>-142.322</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>81126.147935</v>
+        <v>81126.147935000001</v>
       </c>
       <c r="BE20" s="1">
         <v>22.535041</v>
       </c>
       <c r="BF20" s="1">
-        <v>1058.500000</v>
+        <v>1058.5</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.384000</v>
+        <v>-226.38399999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>81137.116927</v>
+        <v>81137.116926999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.538088</v>
+        <v>22.538087999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.809000</v>
+        <v>-360.80900000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>81148.024944</v>
+        <v>81148.024944000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.541118</v>
+        <v>22.541118000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1269.070000</v>
+        <v>1269.07</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.834000</v>
+        <v>-567.83399999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>81158.648258</v>
+        <v>81158.648258000001</v>
       </c>
       <c r="BT20" s="1">
         <v>22.544069</v>
       </c>
       <c r="BU20" s="1">
-        <v>1415.320000</v>
+        <v>1415.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-788.723000</v>
+        <v>-788.72299999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>81169.835027</v>
+        <v>81169.835026999994</v>
       </c>
       <c r="BY20" s="1">
         <v>22.547176</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.520000</v>
+        <v>1575.52</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1018.290000</v>
+        <v>-1018.29</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>81182.772708</v>
+        <v>81182.772708000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.550770</v>
+        <v>22.55077</v>
       </c>
       <c r="CE20" s="1">
-        <v>1978.210000</v>
+        <v>1978.21</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1556.590000</v>
+        <v>-1556.59</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>81010.540870</v>
+        <v>81010.540869999997</v>
       </c>
       <c r="B21" s="1">
-        <v>22.502928</v>
+        <v>22.502928000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>908.391000</v>
+        <v>908.39099999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.477000</v>
+        <v>-195.477</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>81020.960329</v>
+        <v>81020.960328999994</v>
       </c>
       <c r="G21" s="1">
-        <v>22.505822</v>
+        <v>22.505821999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>925.873000</v>
+        <v>925.87300000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.077000</v>
+        <v>-166.077</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>81031.831146</v>
+        <v>81031.831145999997</v>
       </c>
       <c r="L21" s="1">
-        <v>22.508842</v>
+        <v>22.508842000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>948.630000</v>
+        <v>948.63</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.808000</v>
+        <v>-119.80800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>81042.412828</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.511781</v>
+        <v>22.511780999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>955.516000</v>
+        <v>955.51599999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.491000</v>
+        <v>-104.491</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>81052.594670</v>
+        <v>81052.594670000006</v>
       </c>
       <c r="V21" s="1">
-        <v>22.514610</v>
+        <v>22.514610000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>962.294000</v>
+        <v>962.29399999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.666600</v>
+        <v>-90.666600000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>81062.866817</v>
+        <v>81062.866817000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.517463</v>
+        <v>22.517462999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>969.783000</v>
+        <v>969.78300000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-81.015800</v>
+        <v>-81.015799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>81073.309587</v>
+        <v>81073.309586999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.520364</v>
+        <v>22.520364000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>974.844000</v>
+        <v>974.84400000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.273000</v>
+        <v>-80.272999999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>81083.565861</v>
+        <v>81083.565860999995</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.523213</v>
+        <v>22.523212999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>982.907000</v>
+        <v>982.90700000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.801100</v>
+        <v>-87.801100000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>81094.157432</v>
+        <v>81094.157432000007</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.526155</v>
+        <v>22.526154999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>992.141000</v>
+        <v>992.14099999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.469000</v>
+        <v>-102.46899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>81104.867546</v>
+        <v>81104.867545999994</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.529130</v>
+        <v>22.529129999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.754000</v>
+        <v>-123.754</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>81115.864347</v>
+        <v>81115.864346999995</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.532185</v>
+        <v>22.532184999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1013.180000</v>
+        <v>1013.18</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.332000</v>
+        <v>-142.33199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>81126.506541</v>
+        <v>81126.506540999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.535141</v>
+        <v>22.535140999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.394000</v>
+        <v>-226.39400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>81137.492927</v>
+        <v>81137.492926999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.538192</v>
+        <v>22.538191999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.820000</v>
+        <v>-360.82</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>81148.451009</v>
+        <v>81148.451008999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.541236</v>
+        <v>22.541236000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.832000</v>
+        <v>-567.83199999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>81159.095686</v>
+        <v>81159.095686000001</v>
       </c>
       <c r="BT21" s="1">
         <v>22.544193</v>
       </c>
       <c r="BU21" s="1">
-        <v>1415.160000</v>
+        <v>1415.16</v>
       </c>
       <c r="BV21" s="1">
-        <v>-788.650000</v>
+        <v>-788.65</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>81170.253651</v>
+        <v>81170.253651000006</v>
       </c>
       <c r="BY21" s="1">
         <v>22.547293</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.540000</v>
+        <v>1575.54</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1018.420000</v>
+        <v>-1018.42</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>81183.289505</v>
+        <v>81183.289504999993</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.550914</v>
+        <v>22.550913999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1978.330000</v>
+        <v>1978.33</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1555.030000</v>
+        <v>-1555.03</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>81011.225353</v>
+        <v>81011.225353000002</v>
       </c>
       <c r="B22" s="1">
-        <v>22.503118</v>
+        <v>22.503118000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>908.402000</v>
+        <v>908.40200000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.412000</v>
+        <v>-195.41200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>81021.664183</v>
+        <v>81021.664183000001</v>
       </c>
       <c r="G22" s="1">
-        <v>22.506018</v>
+        <v>22.506018000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>925.007000</v>
+        <v>925.00699999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.023000</v>
+        <v>-166.023</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>81032.179338</v>
+        <v>81032.179338000002</v>
       </c>
       <c r="L22" s="1">
-        <v>22.508939</v>
+        <v>22.508939000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>948.526000</v>
+        <v>948.52599999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.764000</v>
+        <v>-119.764</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>81042.761979</v>
+        <v>81042.761979000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.511878</v>
+        <v>22.511877999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>955.502000</v>
+        <v>955.50199999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.500000</v>
+        <v>-104.5</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>81052.940878</v>
+        <v>81052.940877999994</v>
       </c>
       <c r="V22" s="1">
         <v>22.514706</v>
       </c>
       <c r="W22" s="1">
-        <v>962.237000</v>
+        <v>962.23699999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.624300</v>
+        <v>-90.624300000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>81063.537440</v>
+        <v>81063.53744</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.517649</v>
+        <v>22.517648999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>969.701000</v>
+        <v>969.70100000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-81.007100</v>
+        <v>-81.007099999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>81073.688530</v>
+        <v>81073.688529999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.520469</v>
+        <v>22.520468999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>974.886000</v>
+        <v>974.88599999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.321500</v>
+        <v>-80.3215</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>81083.943813</v>
+        <v>81083.943813000005</v>
       </c>
       <c r="AK22" s="1">
         <v>22.523318</v>
       </c>
       <c r="AL22" s="1">
-        <v>982.907000</v>
+        <v>982.90700000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.829900</v>
+        <v>-87.829899999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>81094.525463</v>
+        <v>81094.525462999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.526257</v>
+        <v>22.526257000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>992.145000</v>
+        <v>992.14499999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.479000</v>
+        <v>-102.479</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>81105.248969</v>
+        <v>81105.248968999993</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.529236</v>
+        <v>22.529236000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.770000</v>
+        <v>-123.77</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>81116.254235</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.532293</v>
+        <v>22.532292999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1013.150000</v>
+        <v>1013.15</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.327000</v>
+        <v>-142.327</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>81126.928110</v>
+        <v>81126.928109999993</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.535258</v>
+        <v>22.535257999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1058.530000</v>
+        <v>1058.53</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.388000</v>
+        <v>-226.38800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>81137.923423</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.538312</v>
+        <v>22.538312000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1138.010000</v>
+        <v>1138.01</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.827000</v>
+        <v>-360.827</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>81148.845824</v>
+        <v>81148.845824000004</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.541346</v>
+        <v>22.541346000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1269.020000</v>
+        <v>1269.02</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.826000</v>
+        <v>-567.82600000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>81159.501377</v>
+        <v>81159.501376999993</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.544306</v>
+        <v>22.544305999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1415.160000</v>
+        <v>1415.16</v>
       </c>
       <c r="BV22" s="1">
-        <v>-788.611000</v>
+        <v>-788.61099999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>81170.676739</v>
+        <v>81170.676739000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.547410</v>
+        <v>22.547409999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.530000</v>
+        <v>1575.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1018.410000</v>
+        <v>-1018.41</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>81183.809345</v>
+        <v>81183.809345000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.551058</v>
+        <v>22.551058000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1976.830000</v>
+        <v>1976.83</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1555.210000</v>
+        <v>-1555.21</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>81011.570101</v>
+        <v>81011.570101000005</v>
       </c>
       <c r="B23" s="1">
         <v>22.503214</v>
       </c>
       <c r="C23" s="1">
-        <v>908.442000</v>
+        <v>908.44200000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.218000</v>
+        <v>-195.21799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>81022.006919</v>
+        <v>81022.006919000007</v>
       </c>
       <c r="G23" s="1">
-        <v>22.506113</v>
+        <v>22.506112999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>925.690000</v>
+        <v>925.69</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.161000</v>
+        <v>-166.161</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>81032.523561</v>
+        <v>81032.523560999995</v>
       </c>
       <c r="L23" s="1">
         <v>22.509034</v>
       </c>
       <c r="M23" s="1">
-        <v>948.769000</v>
+        <v>948.76900000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.716000</v>
+        <v>-119.71599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>81043.424420</v>
+        <v>81043.424419999996</v>
       </c>
       <c r="Q23" s="1">
         <v>22.512062</v>
       </c>
       <c r="R23" s="1">
-        <v>955.482000</v>
+        <v>955.48199999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.449000</v>
+        <v>-104.449</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>81053.608495</v>
+        <v>81053.608494999993</v>
       </c>
       <c r="V23" s="1">
-        <v>22.514891</v>
+        <v>22.514890999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>962.213000</v>
+        <v>962.21299999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.574900</v>
+        <v>-90.5749</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>81063.913871</v>
+        <v>81063.913870999997</v>
       </c>
       <c r="AA23" s="1">
         <v>22.517754</v>
       </c>
       <c r="AB23" s="1">
-        <v>969.728000</v>
+        <v>969.72799999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.923500</v>
+        <v>-80.923500000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>81074.029779</v>
+        <v>81074.029779000004</v>
       </c>
       <c r="AF23" s="1">
         <v>22.520564</v>
       </c>
       <c r="AG23" s="1">
-        <v>974.854000</v>
+        <v>974.85400000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.335300</v>
+        <v>-80.335300000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>81084.292043</v>
+        <v>81084.292042999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.523414</v>
+        <v>22.523413999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>982.890000</v>
+        <v>982.89</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.816200</v>
+        <v>-87.816199999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>81094.888038</v>
+        <v>81094.888038000005</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.526358</v>
+        <v>22.526357999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>992.144000</v>
+        <v>992.14400000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.467000</v>
+        <v>-102.467</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>81105.623946</v>
+        <v>81105.623946000007</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.529340</v>
+        <v>22.529340000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.768000</v>
+        <v>-123.768</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>81116.677786</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.532410</v>
+        <v>22.532409999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.333000</v>
+        <v>-142.333</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>81127.230668</v>
+        <v>81127.230668000004</v>
       </c>
       <c r="BE23" s="1">
         <v>22.535342</v>
       </c>
       <c r="BF23" s="1">
-        <v>1058.540000</v>
+        <v>1058.54</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.375000</v>
+        <v>-226.375</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>81138.272606</v>
+        <v>81138.272605999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.538409</v>
+        <v>22.538409000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1138.050000</v>
+        <v>1138.05</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.784000</v>
+        <v>-360.78399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>81149.269936</v>
+        <v>81149.269935999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.541464</v>
+        <v>22.541464000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.827000</v>
+        <v>-567.827</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>81159.915040</v>
+        <v>81159.915040000007</v>
       </c>
       <c r="BT23" s="1">
         <v>22.544421</v>
       </c>
       <c r="BU23" s="1">
-        <v>1415.130000</v>
+        <v>1415.13</v>
       </c>
       <c r="BV23" s="1">
-        <v>-788.459000</v>
+        <v>-788.45899999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>81171.103331</v>
+        <v>81171.103331000006</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.547529</v>
+        <v>22.547529000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.660000</v>
+        <v>1575.66</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1018.440000</v>
+        <v>-1018.44</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>81184.327632</v>
@@ -6118,589 +6534,589 @@
         <v>22.551202</v>
       </c>
       <c r="CE23" s="1">
-        <v>1977.100000</v>
+        <v>1977.1</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1556.750000</v>
+        <v>-1556.75</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>81011.911348</v>
+        <v>81011.911347999994</v>
       </c>
       <c r="B24" s="1">
-        <v>22.503309</v>
+        <v>22.503309000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>908.384000</v>
+        <v>908.38400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.362000</v>
+        <v>-195.36199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>81022.663125</v>
+        <v>81022.663125000006</v>
       </c>
       <c r="G24" s="1">
-        <v>22.506295</v>
+        <v>22.506295000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>925.743000</v>
+        <v>925.74300000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.458000</v>
+        <v>-166.458</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>81033.195641</v>
+        <v>81033.195640999998</v>
       </c>
       <c r="L24" s="1">
         <v>22.509221</v>
       </c>
       <c r="M24" s="1">
-        <v>948.657000</v>
+        <v>948.65700000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.775000</v>
+        <v>-119.77500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>81043.805067</v>
+        <v>81043.805066999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.512168</v>
+        <v>22.512167999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>955.467000</v>
+        <v>955.46699999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.491000</v>
+        <v>-104.491</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>81053.978013</v>
       </c>
       <c r="V24" s="1">
-        <v>22.514994</v>
+        <v>22.514994000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>962.263000</v>
+        <v>962.26300000000003</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.660200</v>
+        <v>-90.660200000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>81064.263551</v>
+        <v>81064.263550999996</v>
       </c>
       <c r="AA24" s="1">
         <v>22.517851</v>
       </c>
       <c r="AB24" s="1">
-        <v>969.654000</v>
+        <v>969.654</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.896800</v>
+        <v>-80.896799999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>81074.373507</v>
+        <v>81074.373506999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.520659</v>
+        <v>22.520658999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>974.859000</v>
+        <v>974.85900000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.328900</v>
+        <v>-80.328900000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>81084.640704</v>
+        <v>81084.640704000005</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.523511</v>
+        <v>22.523510999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>982.906000</v>
+        <v>982.90599999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.807600</v>
+        <v>-87.807599999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>81095.317078</v>
+        <v>81095.317077999993</v>
       </c>
       <c r="AP24" s="1">
         <v>22.526477</v>
       </c>
       <c r="AQ24" s="1">
-        <v>992.155000</v>
+        <v>992.15499999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.478000</v>
+        <v>-102.47799999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>81106.084733</v>
+        <v>81106.084732999996</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.529468</v>
+        <v>22.529468000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.758000</v>
+        <v>-123.758</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>81116.970954</v>
+        <v>81116.970954000004</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.532492</v>
+        <v>22.532492000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1013.180000</v>
+        <v>1013.18</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.322000</v>
+        <v>-142.322</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>81127.592252</v>
+        <v>81127.592252000002</v>
       </c>
       <c r="BE24" s="1">
         <v>22.535442</v>
       </c>
       <c r="BF24" s="1">
-        <v>1058.550000</v>
+        <v>1058.55</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.382000</v>
+        <v>-226.38200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>81138.646092</v>
+        <v>81138.646091999995</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.538513</v>
+        <v>22.538512999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1138.050000</v>
+        <v>1138.05</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.808000</v>
+        <v>-360.80799999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>81149.663230</v>
+        <v>81149.663230000006</v>
       </c>
       <c r="BO24" s="1">
         <v>22.541573</v>
       </c>
       <c r="BP24" s="1">
-        <v>1269.070000</v>
+        <v>1269.07</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.824000</v>
+        <v>-567.82399999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>81160.337136</v>
+        <v>81160.337136000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.544538</v>
+        <v>22.544537999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1415.200000</v>
+        <v>1415.2</v>
       </c>
       <c r="BV24" s="1">
-        <v>-788.292000</v>
+        <v>-788.29200000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>81171.521923</v>
+        <v>81171.521922999993</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.547645</v>
+        <v>22.547644999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.690000</v>
+        <v>1575.69</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1018.470000</v>
+        <v>-1018.47</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>81184.845983</v>
+        <v>81184.845983000007</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.551346</v>
+        <v>22.551345999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1976.550000</v>
+        <v>1976.55</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1556.500000</v>
+        <v>-1556.5</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>81012.565044</v>
+        <v>81012.565044000003</v>
       </c>
       <c r="B25" s="1">
-        <v>22.503490</v>
+        <v>22.503489999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>908.391000</v>
+        <v>908.39099999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.443000</v>
+        <v>-195.44300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>81023.040053</v>
+        <v>81023.040053000004</v>
       </c>
       <c r="G25" s="1">
-        <v>22.506400</v>
+        <v>22.506399999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>925.478000</v>
+        <v>925.47799999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.453000</v>
+        <v>-166.453</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>81033.561224</v>
+        <v>81033.561224000005</v>
       </c>
       <c r="L25" s="1">
-        <v>22.509323</v>
+        <v>22.509322999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>948.720000</v>
+        <v>948.72</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.860000</v>
+        <v>-119.86</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>81044.156730</v>
+        <v>81044.156730000002</v>
       </c>
       <c r="Q25" s="1">
         <v>22.512266</v>
       </c>
       <c r="R25" s="1">
-        <v>955.515000</v>
+        <v>955.51499999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.475000</v>
+        <v>-104.47499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>81054.324220</v>
+        <v>81054.324219999995</v>
       </c>
       <c r="V25" s="1">
-        <v>22.515090</v>
+        <v>22.515090000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>962.376000</v>
+        <v>962.37599999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.640000</v>
+        <v>-90.64</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>81064.613263</v>
+        <v>81064.613263000007</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.517948</v>
+        <v>22.517948000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>969.790000</v>
+        <v>969.79</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.954800</v>
+        <v>-80.954800000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>81074.797090</v>
+        <v>81074.797089999993</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.520777</v>
+        <v>22.520776999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>974.894000</v>
+        <v>974.89400000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.290600</v>
+        <v>-80.290599999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>81085.054853</v>
+        <v>81085.054852999994</v>
       </c>
       <c r="AK25" s="1">
         <v>22.523626</v>
       </c>
       <c r="AL25" s="1">
-        <v>982.911000</v>
+        <v>982.91099999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.809600</v>
+        <v>-87.809600000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>81095.608230</v>
+        <v>81095.608229999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.526558</v>
+        <v>22.526558000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>992.134000</v>
+        <v>992.13400000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.467000</v>
+        <v>-102.467</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>81106.351958</v>
+        <v>81106.351957999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.529542</v>
+        <v>22.529541999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.775000</v>
+        <v>-123.77500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>81117.332010</v>
+        <v>81117.332009999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.532592</v>
+        <v>22.532592000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1013.180000</v>
+        <v>1013.18</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.342000</v>
+        <v>-142.34200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>81127.952844</v>
+        <v>81127.952843999999</v>
       </c>
       <c r="BE25" s="1">
         <v>22.535542</v>
       </c>
       <c r="BF25" s="1">
-        <v>1058.530000</v>
+        <v>1058.53</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.388000</v>
+        <v>-226.38800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>81139.023052</v>
+        <v>81139.023052000004</v>
       </c>
       <c r="BJ25" s="1">
         <v>22.538618</v>
       </c>
       <c r="BK25" s="1">
-        <v>1138.040000</v>
+        <v>1138.04</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.826000</v>
+        <v>-360.82600000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>81150.085327</v>
+        <v>81150.085326999993</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.541690</v>
+        <v>22.541689999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1269.060000</v>
+        <v>1269.06</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.812000</v>
+        <v>-567.81200000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>81160.741871</v>
+        <v>81160.741871000006</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.544651</v>
+        <v>22.544651000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1415.270000</v>
+        <v>1415.27</v>
       </c>
       <c r="BV25" s="1">
-        <v>-788.184000</v>
+        <v>-788.18399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>81171.970342</v>
+        <v>81171.970342000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.547770</v>
+        <v>22.54777</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.530000</v>
+        <v>1575.53</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1018.420000</v>
+        <v>-1018.42</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>81185.396511</v>
+        <v>81185.396510999999</v>
       </c>
       <c r="CD25" s="1">
         <v>22.551499</v>
       </c>
       <c r="CE25" s="1">
-        <v>1976.700000</v>
+        <v>1976.7</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1555.170000</v>
+        <v>-1555.17</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>81012.935592</v>
+        <v>81012.935591999994</v>
       </c>
       <c r="B26" s="1">
-        <v>22.503593</v>
+        <v>22.503592999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>908.274000</v>
+        <v>908.274</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.295000</v>
+        <v>-195.29499999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>81023.380805</v>
+        <v>81023.380804999993</v>
       </c>
       <c r="G26" s="1">
-        <v>22.506495</v>
+        <v>22.506495000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>925.640000</v>
+        <v>925.64</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.343000</v>
+        <v>-166.34299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>81033.908619</v>
+        <v>81033.908618999994</v>
       </c>
       <c r="L26" s="1">
-        <v>22.509419</v>
+        <v>22.509419000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>948.633000</v>
+        <v>948.63300000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.698000</v>
+        <v>-119.69799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>81044.504425</v>
+        <v>81044.504425000006</v>
       </c>
       <c r="Q26" s="1">
         <v>22.512362</v>
       </c>
       <c r="R26" s="1">
-        <v>955.491000</v>
+        <v>955.49099999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.479000</v>
+        <v>-104.479</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>81054.667984</v>
@@ -6709,195 +7125,196 @@
         <v>22.515186</v>
       </c>
       <c r="W26" s="1">
-        <v>962.188000</v>
+        <v>962.18799999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.651200</v>
+        <v>-90.651200000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>81065.039295</v>
+        <v>81065.039294999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.518066</v>
+        <v>22.518066000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>969.810000</v>
+        <v>969.81</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.941000</v>
+        <v>-80.941000000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>81075.083811</v>
+        <v>81075.083811000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.520857</v>
+        <v>22.520856999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>974.932000</v>
+        <v>974.93200000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.169300</v>
+        <v>-80.169300000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>81085.350468</v>
+        <v>81085.350468000004</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.523708</v>
+        <v>22.523707999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>982.933000</v>
+        <v>982.93299999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.800100</v>
+        <v>-87.8001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>81095.968829</v>
+        <v>81095.968829000005</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.526658</v>
+        <v>22.526658000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>992.150000</v>
+        <v>992.15</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.465000</v>
+        <v>-102.465</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>81106.718695</v>
+        <v>81106.718695000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.529644</v>
+        <v>22.529644000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1003.510000</v>
+        <v>1003.51</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.778000</v>
+        <v>-123.77800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>81117.689166</v>
+        <v>81117.689165999996</v>
       </c>
       <c r="AZ26" s="1">
         <v>22.532691</v>
       </c>
       <c r="BA26" s="1">
-        <v>1013.160000</v>
+        <v>1013.16</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.336000</v>
+        <v>-142.33600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>81128.674026</v>
+        <v>81128.674025999993</v>
       </c>
       <c r="BE26" s="1">
         <v>22.535743</v>
       </c>
       <c r="BF26" s="1">
-        <v>1058.520000</v>
+        <v>1058.52</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.389000</v>
+        <v>-226.38900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>81139.754652</v>
+        <v>81139.754652000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.538821</v>
+        <v>22.538820999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1138.040000</v>
+        <v>1138.04</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.813000</v>
+        <v>-360.81299999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>81150.483613</v>
+        <v>81150.483613000004</v>
       </c>
       <c r="BO26" s="1">
         <v>22.541801</v>
       </c>
       <c r="BP26" s="1">
-        <v>1269.090000</v>
+        <v>1269.0899999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.816000</v>
+        <v>-567.81600000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>81161.180335</v>
+        <v>81161.180334999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.544772</v>
+        <v>22.544771999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1415.390000</v>
+        <v>1415.39</v>
       </c>
       <c r="BV26" s="1">
-        <v>-788.100000</v>
+        <v>-788.1</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>81172.392432</v>
+        <v>81172.392431999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.547887</v>
+        <v>22.547886999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.570000</v>
+        <v>1575.57</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1018.570000</v>
+        <v>-1018.57</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>81186.248160</v>
+        <v>81186.248160000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.551736</v>
+        <v>22.551735999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1976.970000</v>
+        <v>1976.97</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1556.750000</v>
+        <v>-1556.75</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>